--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-practitionerrole.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-practitionerrole.xlsx
@@ -613,8 +613,7 @@
   <si>
     <t>A person may have more than one role.
 人は複数の役割を持つ場合がある。
-【JP-Core仕様】
-医師、看護職員、薬剤師、放射線技師、情報職員といった職種を格納する。
+【JP-Core仕様】医師、看護職員、薬剤師、放射線技師、情報職員といった職種を格納する。
 以下のコード表を作成する。
 http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractionerRole_RoleCode
 SS-MIX2ではJHSR004 医療従事者の職種コードを採用
